--- a/NESS.VoucherManagement.Persistence.Tests/TestFiles/timesheets.xlsx
+++ b/NESS.VoucherManagement.Persistence.Tests/TestFiles/timesheets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nadia HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedua\source\repos\popescue\NESS.VoucherManagement\NESS.VoucherManagement.Persistence.Tests\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916A46D0-4A47-40CA-89CE-CAB142153FDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11820" windowHeight="7695"/>
+    <workbookView xWindow="2715" yWindow="30" windowWidth="25860" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pontaj edi_test" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="13">
   <si>
     <t>Pers.No.</t>
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>OpAc</t>
   </si>
   <si>
     <t>Ac.Descr.</t>
@@ -45,22 +43,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Created on</t>
-  </si>
-  <si>
     <t>Cost Ctr</t>
   </si>
   <si>
-    <t>Appr. by</t>
-  </si>
-  <si>
-    <t>Network</t>
-  </si>
-  <si>
     <t>Popescu Eduard</t>
-  </si>
-  <si>
-    <t>billable offshore</t>
   </si>
   <si>
     <t xml:space="preserve">  8.00</t>
@@ -69,19 +55,16 @@
     <t>3701-453</t>
   </si>
   <si>
-    <t>P3700686</t>
+    <t>OLUCRATE</t>
   </si>
   <si>
-    <t>X131760101</t>
-  </si>
-  <si>
-    <t>Vacation</t>
+    <t>CO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -935,29 +918,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -982,777 +962,525 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3700805</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3700805</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43104</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3700805</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43105</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3700805</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>43108</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3700805</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2">
+        <v>43109</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3700805</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43110</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3700805</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2">
+        <v>43111</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3700805</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2">
+        <v>43112</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3700805</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2">
+        <v>43115</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3700805</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2">
+        <v>43116</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3700805</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2">
+        <v>43117</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3700805</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2">
+        <v>43118</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3700805</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2">
+        <v>43119</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3700805</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2">
+        <v>43122</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3700805</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2">
+        <v>43123</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3700805</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2">
+        <v>43125</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3700805</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2">
+        <v>43126</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3700805</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2">
-        <v>43103</v>
-      </c>
-      <c r="I2" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3700805</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2">
+        <v>43129</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3700805</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2">
-        <v>43104</v>
-      </c>
-      <c r="I3" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3700805</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2">
-        <v>43105</v>
-      </c>
-      <c r="I4" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3700805</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2">
-        <v>43108</v>
-      </c>
-      <c r="I5" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3700805</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2">
-        <v>43109</v>
-      </c>
-      <c r="I6" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3700805</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43110</v>
-      </c>
-      <c r="I7" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3700805</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2">
-        <v>43111</v>
-      </c>
-      <c r="I8" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3700805</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="2">
-        <v>43112</v>
-      </c>
-      <c r="I9" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3700805</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="2">
-        <v>43115</v>
-      </c>
-      <c r="I10" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3700805</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="2">
-        <v>43116</v>
-      </c>
-      <c r="I11" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3700805</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="2">
-        <v>43117</v>
-      </c>
-      <c r="I12" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3700805</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="2">
-        <v>43118</v>
-      </c>
-      <c r="I13" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3700805</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="2">
-        <v>43119</v>
-      </c>
-      <c r="I14" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3700805</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="2">
-        <v>43122</v>
-      </c>
-      <c r="I15" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3700805</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="2">
-        <v>43123</v>
-      </c>
-      <c r="I16" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3700805</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="2">
-        <v>43125</v>
-      </c>
-      <c r="I17" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3700805</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="2">
-        <v>43126</v>
-      </c>
-      <c r="I18" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3700805</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>201</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="2">
-        <v>43129</v>
-      </c>
-      <c r="I19" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3700805</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>201</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
+      <c r="D20" s="1">
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2">
         <v>43130</v>
       </c>
-      <c r="I20" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3700805</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2">
         <v>43131</v>
       </c>
-      <c r="I21" s="2">
-        <v>43126</v>
-      </c>
-      <c r="J21" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" t="s">
-        <v>17</v>
+      <c r="H21" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
